--- a/results/I3_N5_M2_T45_C200_DepCentral_s0_mean_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepCentral_s0_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>835.9095192386728</v>
+        <v>18.39770858716315</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2790000438690186</v>
+        <v>0.2160000801086426</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.455115194200065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.836925852814985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>821.1299999928947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,17 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -863,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>37.07084158034131</v>
+        <v>37.07084158034153</v>
       </c>
     </row>
     <row r="4">
@@ -871,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33.18449368032017</v>
+        <v>33.18449368032027</v>
       </c>
     </row>
     <row r="5">
@@ -879,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32.377393530739</v>
+        <v>32.37739353073903</v>
       </c>
     </row>
     <row r="6">
@@ -925,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -953,34 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1038,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>281.8489999995465</v>
+        <v>182.4</v>
       </c>
     </row>
     <row r="4">
@@ -1049,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>207.2679999997328</v>
+        <v>113.8</v>
       </c>
     </row>
     <row r="5">
@@ -1060,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>200.2639999999815</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="6">
@@ -1071,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>103.263000000061</v>
+        <v>45.4</v>
       </c>
     </row>
     <row r="7">
@@ -1082,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>87.66399999991972</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -1093,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>281.8489999993841</v>
+        <v>182.4</v>
       </c>
     </row>
     <row r="9">
@@ -1104,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>200.2639999999065</v>
+        <v>98.2</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>81.84899999938351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1162,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2639999999059626</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1267,7 +1228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1292,39 +1253,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
